--- a/docs/Seats–Votes Curve/Seats–Votes Curves (2020).xlsx
+++ b/docs/Seats–Votes Curve/Seats–Votes Curves (2020).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/docs/Seats–Votes Curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C02D8A-CBC7-8E4E-9844-ADA6B01936C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE88DF-5F76-0F4A-AD58-E471DAE81A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{FDABB6CB-33B6-4F40-9099-7138331CCEC9}"/>
+    <workbookView xWindow="23660" yWindow="1120" windowWidth="27260" windowHeight="16940" xr2:uid="{FDABB6CB-33B6-4F40-9099-7138331CCEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
   <si>
     <t>YEAR</t>
   </si>
@@ -414,6 +414,132 @@
   </si>
   <si>
     <t>Δ</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/f025ff76-e268-4033-971d-d7d755ea01bb</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/1db11e90-c162-4363-847c-a0d34a8864e8</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/283ef00f-9b80-4547-984f-74c25f554eef</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/d6ccadfa-243e-4ecc-9bb2-716b3f82afee</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/22b4dc91-5c29-4d11-a408-108feda65390</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/94bd0713-6e46-4041-9eca-75265455c49f</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/96dd2bb5-d35c-4bbe-a28e-f798072e0983</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/434b0674-aa0b-4c34-837e-d46d5af6e8d6</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/f0155598-3679-42aa-9ff9-17f7a3b6ad82</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/14e046b2-98a2-4b59-bfe3-6c8afee85f43</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/1f28107b-3981-46fc-9be5-6c3be848683d</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/930472f1-d096-42c0-9e38-10f463ecdb89</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/2d801234-32b3-4a96-a64c-82e27c460716</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/d5273801-39a6-4ad6-89fe-c0d1d7460680</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/4f9930e4-072e-452d-9b5f-12cab0427ece</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/ce81ca33-09da-40a2-8803-35e9cf0a6469</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/9fd5b08c-1830-4d60-a0c8-387c764ecfb0</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/63f8c635-75ee-4a08-a798-cec3342feb49</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/f27e6b94-e78f-4726-bf94-4a5d9911d535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://davesredistricting.org/join/5a43a57b-ba16-4a6d-ad53-1fcfcd8a253b</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/a1d6a28b-18ed-4481-8ae0-c3deaf673308</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/e39cf7d4-f655-4f39-a7ff-178ca55673fa</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/a2b03bdb-525c-4082-945f-1150528ec151</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/43ac26c6-a829-4102-9d40-be3288998318</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/dc25e6e9-1e87-439f-8f67-9f20aa842487</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/c601c3fd-769d-4a46-9c0c-4801ad29fa31</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/33ecdb53-4a90-4191-88b2-b58148c20a45</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/6703b5c2-0849-4fdd-9712-f281849255ab</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/00eb40c5-ef15-4634-af87-72fd2b9d062d</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/bae848ae-a6fd-4647-a2fc-3af07978eb28</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/d0da4067-8219-48b6-9403-6bb5782d2dba</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/413e574e-0568-48f4-8e4e-0a31aefa65c2</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/ac3c139e-73a1-4391-87f4-1aaaf7ead166</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/19b1b774-7706-485b-a21a-896bbcbddbba</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/5324d375-0bc2-4960-9f87-6b9aa8e39b0d</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/34e5ac82-d619-4402-963a-9d1118f318f7</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/66454011-b7c9-4302-a075-0e1146d07d54</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/8011bcb2-469b-4546-a6b8-27259586d5a3</t>
+  </si>
+  <si>
+    <t>https://davesredistricting.org/join/7d07ec5b-34c7-42a4-bd43-cc076bf366d6</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>more</t>
   </si>
 </sst>
 </file>
@@ -556,9 +682,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -573,10 +699,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -645,7 +771,30 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}" name="Table1" displayName="Table1" ref="B2:S52" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12">
-  <autoFilter ref="B2:S52" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}"/>
+  <autoFilter ref="B2:S52" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="16"/>
+        <filter val="18"/>
+        <filter val="2"/>
+        <filter val="27"/>
+        <filter val="3"/>
+        <filter val="36"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="53"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{73046750-2EEC-DC42-A0DB-1614FCA4BDDD}" name="STATE" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{80236A0C-6111-C649-98B5-A5A6EC85447F}" name="XX" dataDxfId="10"/>
@@ -662,8 +811,8 @@
     <tableColumn id="14" xr3:uid="{146608F1-BB4C-4F41-851D-ABFCD3583B0F}" name="D_V%" dataDxfId="3">
       <calculatedColumnFormula>1-L3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{2C8A5924-C30D-8E47-912C-25258224FD6D}" name="D_S%'" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{11A3B7FF-A932-8241-8235-73120A46DC65}" name="D_S#'" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{2C8A5924-C30D-8E47-912C-25258224FD6D}" name="D_S%'" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{11A3B7FF-A932-8241-8235-73120A46DC65}" name="D_S#'" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{62FAF15F-F5B0-4344-9FF9-B2FF6949E0F7}" name="Δ" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</calculatedColumnFormula>
     </tableColumn>
@@ -971,14 +1120,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0521CC3-9A07-F44B-B5D6-5B0B92F07057}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4:P52"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,19 +1275,25 @@
         <f>1-L3</f>
         <v>0.35560000000000003</v>
       </c>
+      <c r="O3" s="7">
+        <v>0.1429</v>
+      </c>
       <c r="P3" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="S3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1182,14 +1337,6 @@
         <f t="shared" ref="N4:N52" si="0">1-L4</f>
         <v>0.45420000000000005</v>
       </c>
-      <c r="P4" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
       <c r="S4" t="s">
         <v>115</v>
       </c>
@@ -1238,13 +1385,19 @@
         <f t="shared" si="0"/>
         <v>0.49860000000000004</v>
       </c>
+      <c r="O5" s="7">
+        <v>0.52629999999999999</v>
+      </c>
       <c r="P5" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-5</v>
+        <v>-1</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="S5" t="s">
         <v>115</v>
@@ -1294,6 +1447,9 @@
         <f t="shared" si="0"/>
         <v>0.34289999999999998</v>
       </c>
+      <c r="O6" s="7">
+        <v>1.3899999999999999E-2</v>
+      </c>
       <c r="P6" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
         <v>0</v>
@@ -1302,6 +1458,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>0</v>
       </c>
+      <c r="R6" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="S6" t="s">
         <v>115</v>
       </c>
@@ -1350,13 +1509,19 @@
         <f t="shared" si="0"/>
         <v>0.63200000000000001</v>
       </c>
+      <c r="O7" s="7">
+        <v>0.81369999999999998</v>
+      </c>
       <c r="P7" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-42</v>
+        <v>1</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="S7" t="s">
         <v>115</v>
@@ -1406,13 +1571,19 @@
         <f t="shared" si="0"/>
         <v>0.54920000000000002</v>
       </c>
+      <c r="O8" s="7">
+        <v>0.5968</v>
+      </c>
       <c r="P8" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="S8" t="s">
         <v>115</v>
@@ -1462,19 +1633,25 @@
         <f t="shared" si="0"/>
         <v>0.6018</v>
       </c>
+      <c r="O9" s="7">
+        <v>0.96909999999999996</v>
+      </c>
       <c r="P9" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-5</v>
+        <v>-1</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="S9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1518,125 +1695,129 @@
         <f t="shared" si="0"/>
         <v>0.58889999999999998</v>
       </c>
-      <c r="P10" s="22">
+      <c r="S10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5469164</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5073146</v>
+      </c>
+      <c r="F11" s="5">
+        <v>46678</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10588988</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.48119999999999996</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="P11" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="22">
+        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="S11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2490396</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2393089</v>
+      </c>
+      <c r="F12" s="5">
+        <v>126</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4883611</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="P12" s="22">
+        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>-1</v>
       </c>
-      <c r="S10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5469164</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5073146</v>
-      </c>
-      <c r="F11" s="5">
-        <v>46678</v>
-      </c>
-      <c r="G11" s="5">
-        <v>10588988</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>27</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.59260000000000002</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.48119999999999996</v>
-      </c>
-      <c r="P11" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-11</v>
-      </c>
-      <c r="S11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2490396</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2393089</v>
-      </c>
-      <c r="F12" s="5">
-        <v>126</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4883611</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="P12" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-6</v>
+      <c r="R12" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="S12" t="s">
         <v>115</v>
@@ -1686,13 +1867,19 @@
         <f t="shared" si="0"/>
         <v>0.6956</v>
       </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
       <c r="P13" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="S13" t="s">
         <v>115</v>
@@ -1742,6 +1929,9 @@
         <f t="shared" si="0"/>
         <v>0.31279999999999997</v>
       </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
       <c r="P14" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
         <v>0</v>
@@ -1750,6 +1940,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>0</v>
       </c>
+      <c r="R14" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="S14" t="s">
         <v>115</v>
       </c>
@@ -1798,13 +1991,19 @@
         <f t="shared" si="0"/>
         <v>0.57479999999999998</v>
       </c>
+      <c r="O15" s="7">
+        <v>0.6512</v>
+      </c>
       <c r="P15" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-13</v>
+        <v>-2</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="S15" t="s">
         <v>115</v>
@@ -1854,13 +2053,19 @@
         <f t="shared" si="0"/>
         <v>0.4073</v>
       </c>
+      <c r="O16" s="7">
+        <v>0.21060000000000001</v>
+      </c>
       <c r="P16" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="S16" t="s">
         <v>115</v>
@@ -1910,13 +2115,19 @@
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
+      <c r="O17" s="7">
+        <v>0.35920000000000002</v>
+      </c>
       <c r="P17" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="S17" t="s">
         <v>115</v>
@@ -1965,6 +2176,10 @@
       <c r="N18" s="7">
         <f t="shared" si="0"/>
         <v>0.41800000000000004</v>
+      </c>
+      <c r="O18" s="7">
+        <f>0.83/Table1[[#This Row],[TOT_S]]</f>
+        <v>0.20749999999999999</v>
       </c>
       <c r="P18" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
@@ -1974,6 +2189,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>-1</v>
       </c>
+      <c r="R18" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="S18" t="s">
         <v>115</v>
       </c>
@@ -2021,6 +2239,9 @@
       <c r="N19" s="7">
         <f t="shared" si="0"/>
         <v>0.35029999999999994</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.10249999999999999</v>
       </c>
       <c r="P19" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
@@ -2030,6 +2251,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>-1</v>
       </c>
+      <c r="R19" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="S19" t="s">
         <v>115</v>
       </c>
@@ -2078,13 +2302,19 @@
         <f t="shared" si="0"/>
         <v>0.38339999999999996</v>
       </c>
+      <c r="O20" s="7">
+        <v>0.16669999999999999</v>
+      </c>
       <c r="P20" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="S20" t="s">
         <v>115</v>
@@ -2134,13 +2364,19 @@
         <f t="shared" si="0"/>
         <v>0.57950000000000002</v>
       </c>
+      <c r="O21" s="7">
+        <v>0.82889999999999997</v>
+      </c>
       <c r="P21" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="S21" t="s">
         <v>115</v>
@@ -2191,7 +2427,6 @@
         <v>0.65039999999999998</v>
       </c>
       <c r="O22" s="7">
-        <f>0.8754</f>
         <v>0.87539999999999996</v>
       </c>
       <c r="P22" s="22">
@@ -2253,13 +2488,19 @@
         <f t="shared" si="0"/>
         <v>0.49460000000000004</v>
       </c>
+      <c r="O23" s="7">
+        <v>0.38750000000000001</v>
+      </c>
       <c r="P23" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-9</v>
+        <v>-6</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="S23" t="s">
         <v>115</v>
@@ -2309,13 +2550,19 @@
         <f t="shared" si="0"/>
         <v>0.50669999999999993</v>
       </c>
+      <c r="O24" s="7">
+        <v>0.41449999999999998</v>
+      </c>
       <c r="P24" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-7</v>
+        <v>-2</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="S24" t="s">
         <v>115</v>
@@ -2365,13 +2612,19 @@
         <f t="shared" si="0"/>
         <v>0.5131</v>
       </c>
+      <c r="O25" s="7">
+        <v>0.43930000000000002</v>
+      </c>
       <c r="P25" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-4</v>
+        <v>-1</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="S25" t="s">
         <v>115</v>
@@ -2420,6 +2673,9 @@
       <c r="N26" s="7">
         <f t="shared" si="0"/>
         <v>0.39680000000000004</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.2492</v>
       </c>
       <c r="P26" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
@@ -2429,6 +2685,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>-1</v>
       </c>
+      <c r="R26" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="S26" t="s">
         <v>115</v>
       </c>
@@ -2477,19 +2736,25 @@
         <f t="shared" si="0"/>
         <v>0.40469999999999995</v>
       </c>
+      <c r="O27" s="7">
+        <v>0.26029999999999998</v>
+      </c>
       <c r="P27" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="S27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -2533,14 +2798,6 @@
         <f t="shared" si="0"/>
         <v>0.43610000000000004</v>
       </c>
-      <c r="P28" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
       <c r="S28" t="s">
         <v>115</v>
       </c>
@@ -2589,6 +2846,9 @@
         <f t="shared" si="0"/>
         <v>0.35780000000000001</v>
       </c>
+      <c r="O29" s="7">
+        <v>6.0499999999999998E-2</v>
+      </c>
       <c r="P29" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
         <v>0</v>
@@ -2597,6 +2857,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>0</v>
       </c>
+      <c r="R29" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="S29" t="s">
         <v>115</v>
       </c>
@@ -2645,13 +2908,19 @@
         <f t="shared" si="0"/>
         <v>0.51219999999999999</v>
       </c>
+      <c r="O30" s="7">
+        <v>0.56710000000000005</v>
+      </c>
       <c r="P30" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="S30" t="s">
         <v>115</v>
@@ -2701,13 +2970,19 @@
         <f t="shared" si="0"/>
         <v>0.53899999999999992</v>
       </c>
+      <c r="O31" s="7">
+        <v>0.83550000000000002</v>
+      </c>
       <c r="P31" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="S31" t="s">
         <v>115</v>
@@ -2757,13 +3032,19 @@
         <f t="shared" si="0"/>
         <v>0.57940000000000003</v>
       </c>
+      <c r="O32" s="7">
+        <v>0.73560000000000003</v>
+      </c>
       <c r="P32" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-10</v>
+        <v>-2</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="S32" t="s">
         <v>115</v>
@@ -2813,13 +3094,19 @@
         <f t="shared" si="0"/>
         <v>0.54869999999999997</v>
       </c>
+      <c r="O33" s="7">
+        <v>0.68840000000000001</v>
+      </c>
       <c r="P33" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="S33" t="s">
         <v>115</v>
@@ -2869,13 +3156,19 @@
         <f t="shared" si="0"/>
         <v>0.62070000000000003</v>
       </c>
+      <c r="O34" s="7">
+        <v>0.74929999999999997</v>
+      </c>
       <c r="P34" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-19</v>
+        <v>1</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="S34" t="s">
         <v>115</v>
@@ -2943,7 +3236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -2987,14 +3280,6 @@
         <f t="shared" si="0"/>
         <v>0.28549999999999998</v>
       </c>
-      <c r="P36" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
       <c r="S36" t="s">
         <v>115</v>
       </c>
@@ -3043,13 +3328,19 @@
         <f t="shared" si="0"/>
         <v>0.42979999999999996</v>
       </c>
+      <c r="O37" s="7">
+        <v>0.22919999999999999</v>
+      </c>
       <c r="P37" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-4</v>
+        <v>-1</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="S37" t="s">
         <v>115</v>
@@ -3099,6 +3390,9 @@
         <f t="shared" si="0"/>
         <v>0.31299999999999994</v>
       </c>
+      <c r="O38" s="7">
+        <v>5.7000000000000002E-3</v>
+      </c>
       <c r="P38" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
         <v>0</v>
@@ -3107,6 +3401,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>0</v>
       </c>
+      <c r="R38" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="S38" t="s">
         <v>115</v>
       </c>
@@ -3155,13 +3452,19 @@
         <f t="shared" si="0"/>
         <v>0.57069999999999999</v>
       </c>
+      <c r="O39" s="7">
+        <v>0.69199999999999995</v>
+      </c>
       <c r="P39" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-4</v>
+        <v>-1</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="S39" t="s">
         <v>115</v>
@@ -3273,13 +3576,19 @@
         <f t="shared" si="0"/>
         <v>0.64190000000000003</v>
       </c>
+      <c r="O41" s="7">
+        <v>0.99750000000000005</v>
+      </c>
       <c r="P41" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="R41" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="S41" t="s">
         <v>115</v>
@@ -3329,19 +3638,26 @@
         <f t="shared" si="0"/>
         <v>0.4325</v>
       </c>
+      <c r="O42" s="7">
+        <f>1.13/Table1[[#This Row],[TOT_S]]</f>
+        <v>0.16142857142857142</v>
+      </c>
       <c r="P42" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="R42" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="S42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -3385,14 +3701,6 @@
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P43" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
       <c r="S43" t="s">
         <v>115</v>
       </c>
@@ -3441,13 +3749,19 @@
         <f t="shared" si="0"/>
         <v>0.38139999999999996</v>
       </c>
+      <c r="O44" s="7">
+        <v>0.22189999999999999</v>
+      </c>
       <c r="P44" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="R44" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="S44" t="s">
         <v>115</v>
@@ -3497,13 +3811,19 @@
         <f t="shared" si="0"/>
         <v>0.45240000000000002</v>
       </c>
+      <c r="O45" s="7">
+        <v>0.36840000000000001</v>
+      </c>
       <c r="P45" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q45" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-13</v>
+        <v>0</v>
+      </c>
+      <c r="R45" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="S45" t="s">
         <v>115</v>
@@ -3553,6 +3873,9 @@
         <f t="shared" si="0"/>
         <v>0.36680000000000001</v>
       </c>
+      <c r="O46" s="7">
+        <v>6.4000000000000003E-3</v>
+      </c>
       <c r="P46" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
         <v>0</v>
@@ -3561,11 +3884,14 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>0</v>
       </c>
+      <c r="R46" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="S46" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -3609,14 +3935,6 @@
         <f t="shared" si="0"/>
         <v>0.71360000000000001</v>
       </c>
-      <c r="P47" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
       <c r="S47" t="s">
         <v>115</v>
       </c>
@@ -3666,8 +3984,7 @@
         <v>0.53570000000000007</v>
       </c>
       <c r="O48" s="7">
-        <f>6.1/Table1[[#This Row],[TOT_S]]</f>
-        <v>0.55454545454545456</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="P48" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
@@ -3728,13 +4045,19 @@
         <f t="shared" si="0"/>
         <v>0.5837</v>
       </c>
+      <c r="O49" s="7">
+        <v>0.69330000000000003</v>
+      </c>
       <c r="P49" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q49" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-7</v>
+        <v>-1</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="S49" t="s">
         <v>115</v>
@@ -3784,6 +4107,9 @@
         <f t="shared" si="0"/>
         <v>0.32440000000000002</v>
       </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
       <c r="P50" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
         <v>0</v>
@@ -3792,6 +4118,9 @@
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
         <v>0</v>
       </c>
+      <c r="R50" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="S50" t="s">
         <v>115</v>
       </c>
@@ -3840,19 +4169,25 @@
         <f t="shared" si="0"/>
         <v>0.48529999999999995</v>
       </c>
+      <c r="O51" s="7">
+        <v>0.29749999999999999</v>
+      </c>
       <c r="P51" s="22">
         <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="22">
         <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="R51" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="S51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -3895,14 +4230,6 @@
       <c r="N52" s="7">
         <f t="shared" si="0"/>
         <v>0.26390000000000002</v>
-      </c>
-      <c r="P52" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
       </c>
       <c r="S52" t="s">
         <v>115</v>
@@ -3956,8 +4283,41 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
+      <c r="P54" s="24">
+        <f>SUM(P3:P51)</f>
+        <v>191</v>
+      </c>
+      <c r="Q54" s="24">
+        <f>SUM(Q3:Q51)</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P55" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q55" s="22">
+        <f>COUNTIF(Q$3:Q$51, 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P56" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56" s="22">
+        <f>COUNTIF(Q$3:Q$51, "&lt;0")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P57" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57" s="22">
+        <f>COUNTIF(Q$3:Q$51, "&gt;0")</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3965,10 +4325,49 @@
     <hyperlink ref="R22" r:id="rId2" xr:uid="{E89B99FF-1900-9B46-A7BD-74CD00F20252}"/>
     <hyperlink ref="R40" r:id="rId3" xr:uid="{87E238FC-1D08-414A-936B-C3F29EA777DB}"/>
     <hyperlink ref="R48" r:id="rId4" xr:uid="{D0657891-AAA9-9947-BE91-3EC482284695}"/>
+    <hyperlink ref="R3" r:id="rId5" xr:uid="{C128C738-F06C-C04F-8D4C-3A1F80514F0D}"/>
+    <hyperlink ref="R6" r:id="rId6" xr:uid="{5A9B1971-A026-A74E-8D8F-71230F626332}"/>
+    <hyperlink ref="R5" r:id="rId7" xr:uid="{3E17C6DC-91EF-2740-9FC0-D986B5802E03}"/>
+    <hyperlink ref="R7" r:id="rId8" xr:uid="{8EB37178-6112-C04D-9267-CAD11C483A99}"/>
+    <hyperlink ref="R8" r:id="rId9" xr:uid="{E241D6D2-556F-6F46-9404-E7BA8B79B30D}"/>
+    <hyperlink ref="R9" r:id="rId10" xr:uid="{75667BF3-37F5-414B-AC43-2C22DF0C2650}"/>
+    <hyperlink ref="R11" r:id="rId11" xr:uid="{779D84CD-EDD1-744B-BC14-EE12E2AB50AA}"/>
+    <hyperlink ref="R12" r:id="rId12" xr:uid="{3B6B288C-DAAE-F64C-977E-7A310A431B63}"/>
+    <hyperlink ref="R13" r:id="rId13" xr:uid="{B1D02A54-3BDF-1048-84AC-1C90FB39FDC2}"/>
+    <hyperlink ref="R14" r:id="rId14" xr:uid="{6FA6BDC1-6633-2446-8CFB-6937F15DA338}"/>
+    <hyperlink ref="R15" r:id="rId15" xr:uid="{882BF782-281F-0A4B-A2D3-C65D3C3FFD41}"/>
+    <hyperlink ref="R16" r:id="rId16" xr:uid="{0D82D631-E777-0848-9676-1CC28AF0ED1B}"/>
+    <hyperlink ref="R17" r:id="rId17" xr:uid="{6D205CA5-EA6C-614B-BBBC-8873709FC4E2}"/>
+    <hyperlink ref="R18" r:id="rId18" xr:uid="{CE85079B-C402-D64A-AEBF-8A6347A58809}"/>
+    <hyperlink ref="R19" r:id="rId19" xr:uid="{794C34F5-A902-B343-A7F7-87B3B7E27373}"/>
+    <hyperlink ref="R20" r:id="rId20" xr:uid="{1DAA8BB1-96EA-5745-9D70-FBD4DFB28EBF}"/>
+    <hyperlink ref="R21" r:id="rId21" xr:uid="{871E8BBD-E8B1-7E4A-9090-F0F9BDC75B59}"/>
+    <hyperlink ref="R23" r:id="rId22" xr:uid="{C53C50E7-EB0E-6E46-8FE7-406FE4948ADC}"/>
+    <hyperlink ref="R24" r:id="rId23" display="https://davesredistricting.org/join/f27e6b94-e78f-4726-bf94-4a5d9911d535" xr:uid="{1A2E1C81-B9AE-A24D-8138-5B2417D385F1}"/>
+    <hyperlink ref="R25" r:id="rId24" xr:uid="{92C41BF2-DF2E-E349-9A75-8AE94F5CC894}"/>
+    <hyperlink ref="R26" r:id="rId25" xr:uid="{146FED7E-A245-B04D-A7E1-AA3E64D25079}"/>
+    <hyperlink ref="R27" r:id="rId26" xr:uid="{2E909990-70E5-0B45-A696-592F40CF0F45}"/>
+    <hyperlink ref="R29" r:id="rId27" xr:uid="{8503A266-5638-3348-BDBE-DEAFC6992103}"/>
+    <hyperlink ref="R30" r:id="rId28" xr:uid="{EFCE67C2-FBEC-6044-A113-41D5A8BF4C2C}"/>
+    <hyperlink ref="R31" r:id="rId29" xr:uid="{C1694992-A5BB-DD4B-9AC1-EECD6D791D67}"/>
+    <hyperlink ref="R32" r:id="rId30" xr:uid="{AA57A823-4D20-D249-8190-FFB406FF4AE6}"/>
+    <hyperlink ref="R33" r:id="rId31" xr:uid="{76A4FAAE-7501-634B-B936-9DCB97DB9B77}"/>
+    <hyperlink ref="R34" r:id="rId32" xr:uid="{47976184-2BE3-0448-BB25-299A66678626}"/>
+    <hyperlink ref="R37" r:id="rId33" xr:uid="{5F1506F8-6223-1948-BACB-FAF988C36706}"/>
+    <hyperlink ref="R38" r:id="rId34" xr:uid="{AED3B628-A085-AB45-8AD7-F200D83BC2BB}"/>
+    <hyperlink ref="R39" r:id="rId35" xr:uid="{7C612CE0-CE50-CE4B-9517-C70641F50B4A}"/>
+    <hyperlink ref="R41" r:id="rId36" xr:uid="{7E7ACF71-C60D-EA4F-A816-FCFF7298B892}"/>
+    <hyperlink ref="R42" r:id="rId37" xr:uid="{60CDB03E-4190-DF4F-B40A-EF2B73EF5008}"/>
+    <hyperlink ref="R44" r:id="rId38" xr:uid="{2B1FFDF9-FDD9-B547-8ADE-3954786E1FC0}"/>
+    <hyperlink ref="R45" r:id="rId39" xr:uid="{94DAC8C2-23EE-7847-A043-FEBADA4A5157}"/>
+    <hyperlink ref="R46" r:id="rId40" xr:uid="{57E45E90-53DD-114C-BAA1-F290BC3B30E7}"/>
+    <hyperlink ref="R49" r:id="rId41" xr:uid="{6BF36174-9452-914B-BAEE-190DB2DD7D8B}"/>
+    <hyperlink ref="R50" r:id="rId42" xr:uid="{0DE1A4DB-72B6-C746-AB56-A58E62E7069E}"/>
+    <hyperlink ref="R51" r:id="rId43" xr:uid="{1B6E12C4-11B4-144B-A696-890AF1E04754}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/Seats–Votes Curve/Seats–Votes Curves (2020).xlsx
+++ b/docs/Seats–Votes Curve/Seats–Votes Curves (2020).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/docs/Seats–Votes Curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE88DF-5F76-0F4A-AD58-E471DAE81A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247EB2B-8B7F-544F-8B8A-04EA0EBEB5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23660" yWindow="1120" windowWidth="27260" windowHeight="16940" xr2:uid="{FDABB6CB-33B6-4F40-9099-7138331CCEC9}"/>
+    <workbookView xWindow="11880" yWindow="620" windowWidth="27260" windowHeight="24900" xr2:uid="{FDABB6CB-33B6-4F40-9099-7138331CCEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
   <si>
     <t>YEAR</t>
   </si>
@@ -47,27 +69,9 @@
     <t>XX</t>
   </si>
   <si>
-    <t>REP_V</t>
-  </si>
-  <si>
-    <t>DEM_V</t>
-  </si>
-  <si>
-    <t>OTH_V</t>
-  </si>
-  <si>
     <t>TOT_V</t>
   </si>
   <si>
-    <t>REP_S</t>
-  </si>
-  <si>
-    <t>DEM_S</t>
-  </si>
-  <si>
-    <t>OTH_S</t>
-  </si>
-  <si>
     <t>TOT_S</t>
   </si>
   <si>
@@ -398,12 +402,6 @@
     <t>https://davesredistricting.org/join/87c865df-abda-40b4-aabb-59f9c388c3a0</t>
   </si>
   <si>
-    <t>D_S%'</t>
-  </si>
-  <si>
-    <t>D_S#'</t>
-  </si>
-  <si>
     <t>https://davesredistricting.org/join/c35703c2-6cd0-4f1d-9fae-5a0826507cfb</t>
   </si>
   <si>
@@ -413,9 +411,6 @@
     <t>https://davesredistricting.org/join/28033d62-2027-4661-95d0-557621f823e9</t>
   </si>
   <si>
-    <t>Δ</t>
-  </si>
-  <si>
     <t>https://davesredistricting.org/join/f025ff76-e268-4033-971d-d7d755ea01bb</t>
   </si>
   <si>
@@ -540,6 +535,60 @@
   </si>
   <si>
     <t>more</t>
+  </si>
+  <si>
+    <t>ESTIMATED</t>
+  </si>
+  <si>
+    <t>D_V%'</t>
+  </si>
+  <si>
+    <t>D_S%</t>
+  </si>
+  <si>
+    <t>D_S#</t>
+  </si>
+  <si>
+    <t>R_V</t>
+  </si>
+  <si>
+    <t>D_V</t>
+  </si>
+  <si>
+    <t>O_V</t>
+  </si>
+  <si>
+    <t>R_S</t>
+  </si>
+  <si>
+    <t>D_S</t>
+  </si>
+  <si>
+    <t>O_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      COMPUTED</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std dev</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>ΔD_V%</t>
+  </si>
+  <si>
+    <t>ΔD_S#</t>
+  </si>
+  <si>
+    <t>Only ABS(Δ) &gt; 1</t>
   </si>
 </sst>
 </file>
@@ -582,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,13 +646,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor theme="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -678,23 +751,36 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -770,51 +856,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}" name="Table1" displayName="Table1" ref="B2:S52" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12">
-  <autoFilter ref="B2:S52" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="14"/>
-        <filter val="16"/>
-        <filter val="18"/>
-        <filter val="2"/>
-        <filter val="27"/>
-        <filter val="3"/>
-        <filter val="36"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="53"/>
-        <filter val="6"/>
-        <filter val="7"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{73046750-2EEC-DC42-A0DB-1614FCA4BDDD}" name="STATE" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{80236A0C-6111-C649-98B5-A5A6EC85447F}" name="XX" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{63CD2487-B2FB-1746-B54A-CF279238A27B}" name="REP_V" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{9046D64C-559B-3F42-BB4E-92292BEBF40D}" name="DEM_V" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8F3C558B-9F92-9C43-B5D7-473ABBA0F909}" name="OTH_V" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{99845DE2-F0E7-C541-9E12-3A2CFA61BCAF}" name="TOT_V" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F6D989B4-91BE-8C44-B8F4-246733371DDD}" name="REP_S"/>
-    <tableColumn id="8" xr3:uid="{99B56770-0AFB-7F48-A61E-714D61351182}" name="DEM_S"/>
-    <tableColumn id="9" xr3:uid="{23CE58C3-A664-7C42-BB1E-FA53D5BDF3E3}" name="OTH_S"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}" name="Table1" displayName="Table1" ref="B2:U52" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14">
+  <autoFilter ref="B2:U52" xr:uid="{69870E77-6F88-C242-9970-47BB6401122B}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{73046750-2EEC-DC42-A0DB-1614FCA4BDDD}" name="STATE" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{80236A0C-6111-C649-98B5-A5A6EC85447F}" name="XX" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{63CD2487-B2FB-1746-B54A-CF279238A27B}" name="R_V" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9046D64C-559B-3F42-BB4E-92292BEBF40D}" name="D_V" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{8F3C558B-9F92-9C43-B5D7-473ABBA0F909}" name="O_V" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{99845DE2-F0E7-C541-9E12-3A2CFA61BCAF}" name="TOT_V" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{F6D989B4-91BE-8C44-B8F4-246733371DDD}" name="R_S"/>
+    <tableColumn id="8" xr3:uid="{99B56770-0AFB-7F48-A61E-714D61351182}" name="D_S"/>
+    <tableColumn id="9" xr3:uid="{23CE58C3-A664-7C42-BB1E-FA53D5BDF3E3}" name="O_S"/>
     <tableColumn id="10" xr3:uid="{386B7D6F-A067-CC4E-A64B-8DBD5490FDA2}" name="TOT_S"/>
-    <tableColumn id="12" xr3:uid="{87AF5040-FE35-6F4B-985A-93021F25F306}" name="R_V%" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{44E204CE-5ACE-5C41-ADF0-8F5377159652}" name="SEAT_%" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{146608F1-BB4C-4F41-851D-ABFCD3583B0F}" name="D_V%" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{87AF5040-FE35-6F4B-985A-93021F25F306}" name="R_V%" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{44E204CE-5ACE-5C41-ADF0-8F5377159652}" name="SEAT_%" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{146608F1-BB4C-4F41-851D-ABFCD3583B0F}" name="D_V%" dataDxfId="5">
       <calculatedColumnFormula>1-L3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{2C8A5924-C30D-8E47-912C-25258224FD6D}" name="D_S%'" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{11A3B7FF-A932-8241-8235-73120A46DC65}" name="D_S#'" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{62FAF15F-F5B0-4344-9FF9-B2FF6949E0F7}" name="Δ" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{CBAF1FEC-7357-2E41-A7A1-A153A958D0D8}" name="D_V%'" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{C98F2CE8-41A8-1E4A-BC9F-D32ACCE1A657}" name="ΔD_V%" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{2C8A5924-C30D-8E47-912C-25258224FD6D}" name="D_S%" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{11A3B7FF-A932-8241-8235-73120A46DC65}" name="D_S#" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{62FAF15F-F5B0-4344-9FF9-B2FF6949E0F7}" name="ΔD_S#" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{B5A0C745-F65C-5740-A3C6-9D89B35D701A}" name="Map"/>
     <tableColumn id="18" xr3:uid="{0642435E-4363-534C-B36E-9BA1F98CDB98}" name="Notes"/>
@@ -1120,14 +1187,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0521CC3-9A07-F44B-B5D6-5B0B92F07057}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,34 +1212,44 @@
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" style="7" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="8.5" style="7" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,63 +1260,69 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="L2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="N2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="5">
         <v>1512759</v>
@@ -1276,32 +1359,39 @@
         <v>0.35560000000000003</v>
       </c>
       <c r="O3" s="7">
+        <v>0.4002</v>
+      </c>
+      <c r="P3" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>4.4599999999999973E-2</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0.1429</v>
       </c>
-      <c r="P3" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R3" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>192126</v>
@@ -1337,19 +1427,25 @@
         <f t="shared" ref="N4:N52" si="0">1-L4</f>
         <v>0.45420000000000005</v>
       </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>1638516</v>
@@ -1386,32 +1482,39 @@
         <v>0.49860000000000004</v>
       </c>
       <c r="O5" s="7">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="P5" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-9.9000000000000199E-3</v>
+      </c>
+      <c r="Q5" s="7">
         <v>0.52629999999999999</v>
       </c>
-      <c r="P5" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>4</v>
-      </c>
-      <c r="Q5" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="S5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R5" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="S5" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>828266</v>
@@ -1448,32 +1551,39 @@
         <v>0.34289999999999998</v>
       </c>
       <c r="O6" s="7">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="P6" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>9.2000000000000415E-3</v>
+      </c>
+      <c r="Q6" s="7">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="P6" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R6" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>6486672</v>
@@ -1510,32 +1620,39 @@
         <v>0.63200000000000001</v>
       </c>
       <c r="O7" s="7">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="P7" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>1.0399999999999965E-2</v>
+      </c>
+      <c r="Q7" s="7">
         <v>0.81369999999999998</v>
       </c>
-      <c r="P7" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R7" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>43</v>
       </c>
-      <c r="Q7" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S7" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>1</v>
       </c>
-      <c r="R7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="U7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2020</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5">
         <v>1378248</v>
@@ -1572,32 +1689,39 @@
         <v>0.54920000000000002</v>
       </c>
       <c r="O8" s="7">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="P8" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-4.4000000000000705E-3</v>
+      </c>
+      <c r="Q8" s="7">
         <v>0.5968</v>
       </c>
-      <c r="P8" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R8" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>4</v>
       </c>
-      <c r="Q8" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>676650</v>
@@ -1634,32 +1758,39 @@
         <v>0.6018</v>
       </c>
       <c r="O9" s="7">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="P9" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-2.1000000000000019E-2</v>
+      </c>
+      <c r="Q9" s="7">
         <v>0.96909999999999996</v>
       </c>
-      <c r="P9" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>4</v>
-      </c>
-      <c r="Q9" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="S9" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="U9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>196392</v>
@@ -1695,19 +1826,25 @@
         <f t="shared" si="0"/>
         <v>0.58889999999999998</v>
       </c>
-      <c r="S10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>5469164</v>
@@ -1744,32 +1881,39 @@
         <v>0.48119999999999996</v>
       </c>
       <c r="O11" s="7">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="P11" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="Q11" s="7">
         <v>0.44519999999999998</v>
       </c>
-      <c r="P11" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R11" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>12</v>
       </c>
-      <c r="Q11" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S11" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>1</v>
       </c>
-      <c r="R11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="S11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>2490396</v>
@@ -1806,32 +1950,39 @@
         <v>0.49</v>
       </c>
       <c r="O12" s="7">
+        <v>0.4803</v>
+      </c>
+      <c r="P12" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-9.6999999999999864E-3</v>
+      </c>
+      <c r="Q12" s="7">
         <v>0.36670000000000003</v>
       </c>
-      <c r="P12" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R12" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>5</v>
       </c>
-      <c r="Q12" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S12" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>-1</v>
       </c>
-      <c r="R12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="S12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5">
         <v>155215</v>
@@ -1868,32 +2019,39 @@
         <v>0.6956</v>
       </c>
       <c r="O13" s="7">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="P13" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-1.2900000000000023E-2</v>
+      </c>
+      <c r="Q13" s="7">
         <v>1</v>
       </c>
-      <c r="P13" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R13" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5">
         <v>561405</v>
@@ -1930,32 +2088,39 @@
         <v>0.31279999999999997</v>
       </c>
       <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="S14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.3387</v>
+      </c>
+      <c r="P14" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.5900000000000034E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5">
         <v>2516145</v>
@@ -1992,32 +2157,39 @@
         <v>0.57479999999999998</v>
       </c>
       <c r="O15" s="7">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="P15" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>6.9000000000000172E-3</v>
+      </c>
+      <c r="Q15" s="7">
         <v>0.6512</v>
       </c>
-      <c r="P15" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>11</v>
-      </c>
-      <c r="Q15" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="S15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>12</v>
+      </c>
+      <c r="S15" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>-1</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="U15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5">
         <v>1738745</v>
@@ -2054,32 +2226,39 @@
         <v>0.4073</v>
       </c>
       <c r="O16" s="7">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="P16" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.739999999999998E-2</v>
+      </c>
+      <c r="Q16" s="7">
         <v>0.21060000000000001</v>
       </c>
-      <c r="P16" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="S16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="U16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2020</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5">
         <v>859418</v>
@@ -2116,32 +2295,39 @@
         <v>0.47</v>
       </c>
       <c r="O17" s="7">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="P17" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-1.8499999999999961E-2</v>
+      </c>
+      <c r="Q17" s="7">
         <v>0.35920000000000002</v>
       </c>
-      <c r="P17" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R17" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="S17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2020</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5">
         <v>775898</v>
@@ -2178,33 +2364,40 @@
         <v>0.41800000000000004</v>
       </c>
       <c r="O18" s="7">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="P18" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>5.9999999999998943E-4</v>
+      </c>
+      <c r="Q18" s="7">
         <f>0.83/Table1[[#This Row],[TOT_S]]</f>
         <v>0.20749999999999999</v>
       </c>
-      <c r="P18" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="S18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2020</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5">
         <v>1363964</v>
@@ -2241,32 +2434,39 @@
         <v>0.35029999999999994</v>
       </c>
       <c r="O19" s="7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="P19" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>6.3700000000000034E-2</v>
+      </c>
+      <c r="Q19" s="7">
         <v>0.10249999999999999</v>
       </c>
-      <c r="P19" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="S19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2020</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5">
         <v>1169788</v>
@@ -2303,32 +2503,39 @@
         <v>0.38339999999999996</v>
       </c>
       <c r="O20" s="7">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="P20" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>7.4000000000000177E-3</v>
+      </c>
+      <c r="Q20" s="7">
         <v>0.16669999999999999</v>
       </c>
-      <c r="P20" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R20" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="S20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>340236</v>
@@ -2365,32 +2572,39 @@
         <v>0.57950000000000002</v>
       </c>
       <c r="O21" s="7">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="P21" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-7.3200000000000043E-2</v>
+      </c>
+      <c r="Q21" s="7">
         <v>0.82889999999999997</v>
       </c>
-      <c r="P21" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="S21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R21" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="S21" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5">
         <v>1028150</v>
@@ -2427,32 +2641,39 @@
         <v>0.65039999999999998</v>
       </c>
       <c r="O22" s="7">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="P22" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-2.8899999999999926E-2</v>
+      </c>
+      <c r="Q22" s="7">
         <v>0.87539999999999996</v>
       </c>
-      <c r="P22" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R22" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="S22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="U22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2020</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5">
         <v>1895553</v>
@@ -2489,32 +2710,39 @@
         <v>0.49460000000000004</v>
       </c>
       <c r="O23" s="7">
+        <v>0.6139</v>
+      </c>
+      <c r="P23" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>0.11929999999999996</v>
+      </c>
+      <c r="Q23" s="7">
         <v>0.38750000000000001</v>
       </c>
-      <c r="P23" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R23" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>3</v>
       </c>
-      <c r="Q23" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S23" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>-6</v>
       </c>
-      <c r="R23" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="S23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="U23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>2617881</v>
@@ -2551,32 +2779,39 @@
         <v>0.50669999999999993</v>
       </c>
       <c r="O24" s="7">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="P24" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>1.2000000000000122E-2</v>
+      </c>
+      <c r="Q24" s="7">
         <v>0.41449999999999998</v>
       </c>
-      <c r="P24" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>5</v>
-      </c>
-      <c r="Q24" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>6</v>
+      </c>
+      <c r="S24" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>-1</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2020</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>1474820</v>
@@ -2613,32 +2848,39 @@
         <v>0.5131</v>
       </c>
       <c r="O25" s="7">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="P25" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>3.169999999999995E-2</v>
+      </c>
+      <c r="Q25" s="7">
         <v>0.43930000000000002</v>
       </c>
-      <c r="P25" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>3</v>
-      </c>
-      <c r="Q25" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="S25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>4</v>
+      </c>
+      <c r="S25" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2020</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5">
         <v>806832</v>
@@ -2675,32 +2917,39 @@
         <v>0.39680000000000004</v>
       </c>
       <c r="O26" s="7">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="P26" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>3.5099999999999965E-2</v>
+      </c>
+      <c r="Q26" s="7">
         <v>0.2492</v>
       </c>
-      <c r="P26" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="S26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R26" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2020</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5">
         <v>1723982</v>
@@ -2737,32 +2986,39 @@
         <v>0.40469999999999995</v>
       </c>
       <c r="O27" s="7">
+        <v>0.4279</v>
+      </c>
+      <c r="P27" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.3200000000000054E-2</v>
+      </c>
+      <c r="Q27" s="7">
         <v>0.26029999999999998</v>
       </c>
-      <c r="P27" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R27" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>2</v>
       </c>
-      <c r="Q27" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="S27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2020</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D28" s="5">
         <v>339169</v>
@@ -2798,19 +3054,25 @@
         <f t="shared" si="0"/>
         <v>0.43610000000000004</v>
       </c>
-      <c r="S28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2020</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5">
         <v>585234</v>
@@ -2847,32 +3109,39 @@
         <v>0.35780000000000001</v>
       </c>
       <c r="O29" s="7">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="P29" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>1.7600000000000005E-2</v>
+      </c>
+      <c r="Q29" s="7">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="P29" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="S29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="U29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2020</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5">
         <v>633827</v>
@@ -2909,32 +3178,39 @@
         <v>0.51219999999999999</v>
       </c>
       <c r="O30" s="7">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="P30" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.2999999999999687E-3</v>
+      </c>
+      <c r="Q30" s="7">
         <v>0.56710000000000005</v>
       </c>
-      <c r="P30" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R30" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>2</v>
       </c>
-      <c r="Q30" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S30" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>-1</v>
       </c>
-      <c r="R30" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="S30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2020</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5">
         <v>354045</v>
@@ -2971,32 +3247,39 @@
         <v>0.53899999999999992</v>
       </c>
       <c r="O31" s="7">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="P31" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-7.389999999999991E-2</v>
+      </c>
+      <c r="Q31" s="7">
         <v>0.83550000000000002</v>
       </c>
-      <c r="P31" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R31" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="S31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R31" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="S31" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="U31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5">
         <v>1843047</v>
@@ -3033,32 +3316,39 @@
         <v>0.57940000000000003</v>
       </c>
       <c r="O32" s="7">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="P32" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="Q32" s="7">
         <v>0.73560000000000003</v>
       </c>
-      <c r="P32" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>8</v>
-      </c>
-      <c r="Q32" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="S32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>9</v>
+      </c>
+      <c r="S32" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>-1</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="U32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2020</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5">
         <v>407786</v>
@@ -3095,32 +3385,39 @@
         <v>0.54869999999999997</v>
       </c>
       <c r="O33" s="7">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="P33" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>1.2199999999999989E-2</v>
+      </c>
+      <c r="Q33" s="7">
         <v>0.68840000000000001</v>
       </c>
-      <c r="P33" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R33" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>2</v>
       </c>
-      <c r="Q33" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="S33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2020</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D34" s="5">
         <v>2886505</v>
@@ -3157,32 +3454,39 @@
         <v>0.62070000000000003</v>
       </c>
       <c r="O34" s="7">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="P34" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.7100000000000013E-2</v>
+      </c>
+      <c r="Q34" s="7">
         <v>0.74929999999999997</v>
       </c>
-      <c r="P34" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R34" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>20</v>
       </c>
-      <c r="Q34" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S34" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>1</v>
       </c>
-      <c r="R34" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="S34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2020</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>2777675</v>
@@ -3219,32 +3523,39 @@
         <v>0.48919999999999997</v>
       </c>
       <c r="O35" s="7">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="P35" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>5.1000000000000489E-3</v>
+      </c>
+      <c r="Q35" s="7">
         <v>0.40679999999999999</v>
       </c>
-      <c r="P35" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R35" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>5</v>
       </c>
-      <c r="Q35" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="S35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="U35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2020</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D36" s="5">
         <v>245229</v>
@@ -3280,19 +3591,25 @@
         <f t="shared" si="0"/>
         <v>0.28549999999999998</v>
       </c>
-      <c r="S36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2020</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5">
         <v>3252887</v>
@@ -3329,32 +3646,39 @@
         <v>0.42979999999999996</v>
       </c>
       <c r="O37" s="7">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="P37" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="Q37" s="7">
         <v>0.22919999999999999</v>
       </c>
-      <c r="P37" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>3</v>
-      </c>
-      <c r="Q37" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="S37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R37" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>4</v>
+      </c>
+      <c r="S37" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2020</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5">
         <v>1044175</v>
@@ -3391,32 +3715,39 @@
         <v>0.31299999999999994</v>
       </c>
       <c r="O38" s="7">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="P38" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.3300000000000043E-2</v>
+      </c>
+      <c r="Q38" s="7">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="P38" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="S38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R38" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2020</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D39" s="5">
         <v>966786</v>
@@ -3453,32 +3784,39 @@
         <v>0.57069999999999999</v>
       </c>
       <c r="O39" s="7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="P39" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>4.2999999999999705E-3</v>
+      </c>
+      <c r="Q39" s="7">
         <v>0.69199999999999995</v>
       </c>
-      <c r="P39" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R39" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>3</v>
       </c>
-      <c r="Q39" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S39" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>-1</v>
       </c>
-      <c r="R39" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="U39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2020</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D40" s="5">
         <v>3432595</v>
@@ -3515,32 +3853,39 @@
         <v>0.49370000000000003</v>
       </c>
       <c r="O40" s="7">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="P40" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>3.1399999999999983E-2</v>
+      </c>
+      <c r="Q40" s="7">
         <v>0.43519999999999998</v>
       </c>
-      <c r="P40" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>7</v>
-      </c>
-      <c r="Q40" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-2</v>
-      </c>
-      <c r="R40" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="R40" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="S40" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>-1</v>
+      </c>
+      <c r="T40" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2020</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5">
         <v>189261</v>
@@ -3577,32 +3922,39 @@
         <v>0.64190000000000003</v>
       </c>
       <c r="O41" s="7">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="P41" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-2.300000000000002E-2</v>
+      </c>
+      <c r="Q41" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="P41" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R41" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="S41" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2020</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D42" s="5">
         <v>1412684</v>
@@ -3639,33 +3991,40 @@
         <v>0.4325</v>
       </c>
       <c r="O42" s="7">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="P42" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-9.000000000000119E-4</v>
+      </c>
+      <c r="Q42" s="7">
         <f>1.13/Table1[[#This Row],[TOT_S]]</f>
         <v>0.16142857142857142</v>
       </c>
-      <c r="P42" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R42" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>1</v>
       </c>
-      <c r="Q42" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="S42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="U42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2020</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D43" s="5">
         <v>321984</v>
@@ -3701,19 +4060,25 @@
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="S43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2020</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D44" s="5">
         <v>1793321</v>
@@ -3750,32 +4115,39 @@
         <v>0.38139999999999996</v>
       </c>
       <c r="O44" s="7">
+        <v>0.3871</v>
+      </c>
+      <c r="P44" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>5.7000000000000384E-3</v>
+      </c>
+      <c r="Q44" s="7">
         <v>0.22189999999999999</v>
       </c>
-      <c r="P44" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="S44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="S44" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="U44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5">
         <v>5926712</v>
@@ -3812,32 +4184,39 @@
         <v>0.45240000000000002</v>
       </c>
       <c r="O45" s="7">
+        <v>0.4622</v>
+      </c>
+      <c r="P45" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>9.7999999999999754E-3</v>
+      </c>
+      <c r="Q45" s="7">
         <v>0.36840000000000001</v>
       </c>
-      <c r="P45" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R45" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>13</v>
       </c>
-      <c r="Q45" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="S45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2020</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D46" s="5">
         <v>873347</v>
@@ -3874,32 +4253,39 @@
         <v>0.36680000000000001</v>
       </c>
       <c r="O46" s="7">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="P46" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-3.7100000000000022E-2</v>
+      </c>
+      <c r="Q46" s="7">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="P46" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="S46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2020</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5">
         <v>95830</v>
@@ -3935,19 +4321,25 @@
         <f t="shared" si="0"/>
         <v>0.71360000000000001</v>
       </c>
-      <c r="S47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R47" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2020</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D48" s="5">
         <v>2059015</v>
@@ -3984,32 +4376,39 @@
         <v>0.53570000000000007</v>
       </c>
       <c r="O48" s="7">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="P48" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="Q48" s="7">
         <v>0.54979999999999996</v>
       </c>
-      <c r="P48" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R48" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>6</v>
       </c>
-      <c r="Q48" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S48" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>-1</v>
       </c>
-      <c r="R48" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="S48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="U48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2020</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D49" s="5">
         <v>1669283</v>
@@ -4046,32 +4445,39 @@
         <v>0.5837</v>
       </c>
       <c r="O49" s="7">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="P49" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="Q49" s="7">
         <v>0.69330000000000003</v>
       </c>
-      <c r="P49" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>6</v>
-      </c>
-      <c r="Q49" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>-1</v>
-      </c>
-      <c r="R49" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="S49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>7</v>
+      </c>
+      <c r="S49" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="U49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2020</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5">
         <v>514268</v>
@@ -4108,32 +4514,39 @@
         <v>0.32440000000000002</v>
       </c>
       <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="S50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="P50" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>-5.4000000000000159E-3</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="U50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2020</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D51" s="5">
         <v>1661399</v>
@@ -4170,32 +4583,39 @@
         <v>0.48529999999999995</v>
       </c>
       <c r="O51" s="7">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="P51" s="7">
+        <f>Table1[[#This Row],[D_V%'']]-Table1[[#This Row],[D_V%]]</f>
+        <v>2.1500000000000075E-2</v>
+      </c>
+      <c r="Q51" s="7">
         <v>0.29749999999999999</v>
       </c>
-      <c r="P51" s="22">
-        <f>TRUNC(Table1[[#This Row],[D_S%'']]*Table1[[#This Row],[TOT_S]])</f>
+      <c r="R51" s="16">
+        <f>ROUND(Table1[[#This Row],[D_S%]]*Table1[[#This Row],[TOT_S]],0)</f>
         <v>2</v>
       </c>
-      <c r="Q51" s="22">
-        <f>Table1[[#This Row],[D_S'#'']]-Table1[[#This Row],[DEM_S]]</f>
+      <c r="S51" s="16">
+        <f>Table1[[#This Row],[D_S'#]]-Table1[[#This Row],[D_S]]</f>
         <v>-1</v>
       </c>
-      <c r="R51" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="S51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="T51" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="U51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2020</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D52" s="5">
         <v>185732</v>
@@ -4231,11 +4651,17 @@
         <f t="shared" si="0"/>
         <v>0.26390000000000002</v>
       </c>
-      <c r="S52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -4250,14 +4676,16 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-    </row>
-    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4283,87 +4711,146 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="24">
-        <f>SUM(P3:P51)</f>
-        <v>191</v>
-      </c>
-      <c r="Q54" s="24">
-        <f>SUM(Q3:Q51)</f>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P55" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q55" s="22">
-        <f>COUNTIF(Q$3:Q$51, 0)</f>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="18">
+        <f>SUM(R3:R51)</f>
+        <v>208</v>
+      </c>
+      <c r="S54" s="18">
+        <f>SUM(S3:S51)</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O55" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P55" s="16">
+        <f>SUM(S55:S57)-SUM(P56:P57)</f>
+        <v>18</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S55" s="16">
+        <f>COUNTIF(S$3:S$51, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O56" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P56" s="16">
+        <f>COUNTIF(P$3:P$51, "&lt;-0.01")</f>
+        <v>8</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="S56" s="29">
+        <f>COUNTIF(S$3:S$51, "&lt;0")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O57" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P57" s="16">
+        <f>COUNTIF(P$3:P$51, "&gt;0.01")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P56" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q56" s="22">
-        <f>COUNTIF(Q$3:Q$51, "&lt;0")</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P57" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q57" s="22">
-        <f>COUNTIF(Q$3:Q$51, "&gt;0")</f>
+      <c r="R57" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="S57" s="16">
+        <f>COUNTIF(S$3:S$51, "&gt;0")</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P59" s="7">
+        <f>MIN(P$3:P$51)</f>
+        <v>-7.389999999999991E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O60" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60" s="7">
+        <f>MAX(P$3:P$51)</f>
+        <v>0.11929999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P61" s="7" cm="1">
+        <f t="array" ref="P61">AVERAGE(IF(ISNUMBER(P$3:P$51),ABS(P$3:P$51)))</f>
+        <v>2.1883720930232563E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P62" s="7" cm="1">
+        <f t="array" ref="P62">STDEV(IF(ISNUMBER(P$3:P$51),ABS(P$3:P$51)))</f>
+        <v>2.3719009156135437E-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R35" r:id="rId1" xr:uid="{774F79A0-FDE0-D844-B181-9FB50C92B25D}"/>
-    <hyperlink ref="R22" r:id="rId2" xr:uid="{E89B99FF-1900-9B46-A7BD-74CD00F20252}"/>
-    <hyperlink ref="R40" r:id="rId3" xr:uid="{87E238FC-1D08-414A-936B-C3F29EA777DB}"/>
-    <hyperlink ref="R48" r:id="rId4" xr:uid="{D0657891-AAA9-9947-BE91-3EC482284695}"/>
-    <hyperlink ref="R3" r:id="rId5" xr:uid="{C128C738-F06C-C04F-8D4C-3A1F80514F0D}"/>
-    <hyperlink ref="R6" r:id="rId6" xr:uid="{5A9B1971-A026-A74E-8D8F-71230F626332}"/>
-    <hyperlink ref="R5" r:id="rId7" xr:uid="{3E17C6DC-91EF-2740-9FC0-D986B5802E03}"/>
-    <hyperlink ref="R7" r:id="rId8" xr:uid="{8EB37178-6112-C04D-9267-CAD11C483A99}"/>
-    <hyperlink ref="R8" r:id="rId9" xr:uid="{E241D6D2-556F-6F46-9404-E7BA8B79B30D}"/>
-    <hyperlink ref="R9" r:id="rId10" xr:uid="{75667BF3-37F5-414B-AC43-2C22DF0C2650}"/>
-    <hyperlink ref="R11" r:id="rId11" xr:uid="{779D84CD-EDD1-744B-BC14-EE12E2AB50AA}"/>
-    <hyperlink ref="R12" r:id="rId12" xr:uid="{3B6B288C-DAAE-F64C-977E-7A310A431B63}"/>
-    <hyperlink ref="R13" r:id="rId13" xr:uid="{B1D02A54-3BDF-1048-84AC-1C90FB39FDC2}"/>
-    <hyperlink ref="R14" r:id="rId14" xr:uid="{6FA6BDC1-6633-2446-8CFB-6937F15DA338}"/>
-    <hyperlink ref="R15" r:id="rId15" xr:uid="{882BF782-281F-0A4B-A2D3-C65D3C3FFD41}"/>
-    <hyperlink ref="R16" r:id="rId16" xr:uid="{0D82D631-E777-0848-9676-1CC28AF0ED1B}"/>
-    <hyperlink ref="R17" r:id="rId17" xr:uid="{6D205CA5-EA6C-614B-BBBC-8873709FC4E2}"/>
-    <hyperlink ref="R18" r:id="rId18" xr:uid="{CE85079B-C402-D64A-AEBF-8A6347A58809}"/>
-    <hyperlink ref="R19" r:id="rId19" xr:uid="{794C34F5-A902-B343-A7F7-87B3B7E27373}"/>
-    <hyperlink ref="R20" r:id="rId20" xr:uid="{1DAA8BB1-96EA-5745-9D70-FBD4DFB28EBF}"/>
-    <hyperlink ref="R21" r:id="rId21" xr:uid="{871E8BBD-E8B1-7E4A-9090-F0F9BDC75B59}"/>
-    <hyperlink ref="R23" r:id="rId22" xr:uid="{C53C50E7-EB0E-6E46-8FE7-406FE4948ADC}"/>
-    <hyperlink ref="R24" r:id="rId23" display="https://davesredistricting.org/join/f27e6b94-e78f-4726-bf94-4a5d9911d535" xr:uid="{1A2E1C81-B9AE-A24D-8138-5B2417D385F1}"/>
-    <hyperlink ref="R25" r:id="rId24" xr:uid="{92C41BF2-DF2E-E349-9A75-8AE94F5CC894}"/>
-    <hyperlink ref="R26" r:id="rId25" xr:uid="{146FED7E-A245-B04D-A7E1-AA3E64D25079}"/>
-    <hyperlink ref="R27" r:id="rId26" xr:uid="{2E909990-70E5-0B45-A696-592F40CF0F45}"/>
-    <hyperlink ref="R29" r:id="rId27" xr:uid="{8503A266-5638-3348-BDBE-DEAFC6992103}"/>
-    <hyperlink ref="R30" r:id="rId28" xr:uid="{EFCE67C2-FBEC-6044-A113-41D5A8BF4C2C}"/>
-    <hyperlink ref="R31" r:id="rId29" xr:uid="{C1694992-A5BB-DD4B-9AC1-EECD6D791D67}"/>
-    <hyperlink ref="R32" r:id="rId30" xr:uid="{AA57A823-4D20-D249-8190-FFB406FF4AE6}"/>
-    <hyperlink ref="R33" r:id="rId31" xr:uid="{76A4FAAE-7501-634B-B936-9DCB97DB9B77}"/>
-    <hyperlink ref="R34" r:id="rId32" xr:uid="{47976184-2BE3-0448-BB25-299A66678626}"/>
-    <hyperlink ref="R37" r:id="rId33" xr:uid="{5F1506F8-6223-1948-BACB-FAF988C36706}"/>
-    <hyperlink ref="R38" r:id="rId34" xr:uid="{AED3B628-A085-AB45-8AD7-F200D83BC2BB}"/>
-    <hyperlink ref="R39" r:id="rId35" xr:uid="{7C612CE0-CE50-CE4B-9517-C70641F50B4A}"/>
-    <hyperlink ref="R41" r:id="rId36" xr:uid="{7E7ACF71-C60D-EA4F-A816-FCFF7298B892}"/>
-    <hyperlink ref="R42" r:id="rId37" xr:uid="{60CDB03E-4190-DF4F-B40A-EF2B73EF5008}"/>
-    <hyperlink ref="R44" r:id="rId38" xr:uid="{2B1FFDF9-FDD9-B547-8ADE-3954786E1FC0}"/>
-    <hyperlink ref="R45" r:id="rId39" xr:uid="{94DAC8C2-23EE-7847-A043-FEBADA4A5157}"/>
-    <hyperlink ref="R46" r:id="rId40" xr:uid="{57E45E90-53DD-114C-BAA1-F290BC3B30E7}"/>
-    <hyperlink ref="R49" r:id="rId41" xr:uid="{6BF36174-9452-914B-BAEE-190DB2DD7D8B}"/>
-    <hyperlink ref="R50" r:id="rId42" xr:uid="{0DE1A4DB-72B6-C746-AB56-A58E62E7069E}"/>
-    <hyperlink ref="R51" r:id="rId43" xr:uid="{1B6E12C4-11B4-144B-A696-890AF1E04754}"/>
+    <hyperlink ref="T35" r:id="rId1" xr:uid="{774F79A0-FDE0-D844-B181-9FB50C92B25D}"/>
+    <hyperlink ref="T22" r:id="rId2" xr:uid="{E89B99FF-1900-9B46-A7BD-74CD00F20252}"/>
+    <hyperlink ref="T40" r:id="rId3" xr:uid="{87E238FC-1D08-414A-936B-C3F29EA777DB}"/>
+    <hyperlink ref="T48" r:id="rId4" xr:uid="{D0657891-AAA9-9947-BE91-3EC482284695}"/>
+    <hyperlink ref="T3" r:id="rId5" xr:uid="{C128C738-F06C-C04F-8D4C-3A1F80514F0D}"/>
+    <hyperlink ref="T6" r:id="rId6" xr:uid="{5A9B1971-A026-A74E-8D8F-71230F626332}"/>
+    <hyperlink ref="T5" r:id="rId7" xr:uid="{3E17C6DC-91EF-2740-9FC0-D986B5802E03}"/>
+    <hyperlink ref="T7" r:id="rId8" xr:uid="{8EB37178-6112-C04D-9267-CAD11C483A99}"/>
+    <hyperlink ref="T8" r:id="rId9" xr:uid="{E241D6D2-556F-6F46-9404-E7BA8B79B30D}"/>
+    <hyperlink ref="T9" r:id="rId10" xr:uid="{75667BF3-37F5-414B-AC43-2C22DF0C2650}"/>
+    <hyperlink ref="T11" r:id="rId11" xr:uid="{779D84CD-EDD1-744B-BC14-EE12E2AB50AA}"/>
+    <hyperlink ref="T12" r:id="rId12" xr:uid="{3B6B288C-DAAE-F64C-977E-7A310A431B63}"/>
+    <hyperlink ref="T13" r:id="rId13" xr:uid="{B1D02A54-3BDF-1048-84AC-1C90FB39FDC2}"/>
+    <hyperlink ref="T14" r:id="rId14" xr:uid="{6FA6BDC1-6633-2446-8CFB-6937F15DA338}"/>
+    <hyperlink ref="T15" r:id="rId15" xr:uid="{882BF782-281F-0A4B-A2D3-C65D3C3FFD41}"/>
+    <hyperlink ref="T16" r:id="rId16" xr:uid="{0D82D631-E777-0848-9676-1CC28AF0ED1B}"/>
+    <hyperlink ref="T17" r:id="rId17" xr:uid="{6D205CA5-EA6C-614B-BBBC-8873709FC4E2}"/>
+    <hyperlink ref="T18" r:id="rId18" xr:uid="{CE85079B-C402-D64A-AEBF-8A6347A58809}"/>
+    <hyperlink ref="T19" r:id="rId19" xr:uid="{794C34F5-A902-B343-A7F7-87B3B7E27373}"/>
+    <hyperlink ref="T20" r:id="rId20" xr:uid="{1DAA8BB1-96EA-5745-9D70-FBD4DFB28EBF}"/>
+    <hyperlink ref="T21" r:id="rId21" xr:uid="{871E8BBD-E8B1-7E4A-9090-F0F9BDC75B59}"/>
+    <hyperlink ref="T23" r:id="rId22" xr:uid="{C53C50E7-EB0E-6E46-8FE7-406FE4948ADC}"/>
+    <hyperlink ref="T24" r:id="rId23" display="https://davesredistricting.org/join/f27e6b94-e78f-4726-bf94-4a5d9911d535" xr:uid="{1A2E1C81-B9AE-A24D-8138-5B2417D385F1}"/>
+    <hyperlink ref="T25" r:id="rId24" xr:uid="{92C41BF2-DF2E-E349-9A75-8AE94F5CC894}"/>
+    <hyperlink ref="T26" r:id="rId25" xr:uid="{146FED7E-A245-B04D-A7E1-AA3E64D25079}"/>
+    <hyperlink ref="T27" r:id="rId26" xr:uid="{2E909990-70E5-0B45-A696-592F40CF0F45}"/>
+    <hyperlink ref="T29" r:id="rId27" xr:uid="{8503A266-5638-3348-BDBE-DEAFC6992103}"/>
+    <hyperlink ref="T30" r:id="rId28" xr:uid="{EFCE67C2-FBEC-6044-A113-41D5A8BF4C2C}"/>
+    <hyperlink ref="T31" r:id="rId29" xr:uid="{C1694992-A5BB-DD4B-9AC1-EECD6D791D67}"/>
+    <hyperlink ref="T32" r:id="rId30" xr:uid="{AA57A823-4D20-D249-8190-FFB406FF4AE6}"/>
+    <hyperlink ref="T33" r:id="rId31" xr:uid="{76A4FAAE-7501-634B-B936-9DCB97DB9B77}"/>
+    <hyperlink ref="T34" r:id="rId32" xr:uid="{47976184-2BE3-0448-BB25-299A66678626}"/>
+    <hyperlink ref="T37" r:id="rId33" xr:uid="{5F1506F8-6223-1948-BACB-FAF988C36706}"/>
+    <hyperlink ref="T38" r:id="rId34" xr:uid="{AED3B628-A085-AB45-8AD7-F200D83BC2BB}"/>
+    <hyperlink ref="T39" r:id="rId35" xr:uid="{7C612CE0-CE50-CE4B-9517-C70641F50B4A}"/>
+    <hyperlink ref="T41" r:id="rId36" xr:uid="{7E7ACF71-C60D-EA4F-A816-FCFF7298B892}"/>
+    <hyperlink ref="T42" r:id="rId37" xr:uid="{60CDB03E-4190-DF4F-B40A-EF2B73EF5008}"/>
+    <hyperlink ref="T44" r:id="rId38" xr:uid="{2B1FFDF9-FDD9-B547-8ADE-3954786E1FC0}"/>
+    <hyperlink ref="T45" r:id="rId39" xr:uid="{94DAC8C2-23EE-7847-A043-FEBADA4A5157}"/>
+    <hyperlink ref="T46" r:id="rId40" xr:uid="{57E45E90-53DD-114C-BAA1-F290BC3B30E7}"/>
+    <hyperlink ref="T49" r:id="rId41" xr:uid="{6BF36174-9452-914B-BAEE-190DB2DD7D8B}"/>
+    <hyperlink ref="T50" r:id="rId42" xr:uid="{0DE1A4DB-72B6-C746-AB56-A58E62E7069E}"/>
+    <hyperlink ref="T51" r:id="rId43" xr:uid="{1B6E12C4-11B4-144B-A696-890AF1E04754}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
